--- a/output/results/production_wells/production_wells_results.xlsx
+++ b/output/results/production_wells/production_wells_results.xlsx
@@ -482,25 +482,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>28.02353898144926</v>
+        <v>36.51816896831989</v>
       </c>
       <c r="C2" t="n">
-        <v>74.54352637334452</v>
+        <v>75.35744333971034</v>
       </c>
       <c r="D2" t="n">
-        <v>19.16203482413347</v>
+        <v>17.92376598314013</v>
       </c>
       <c r="E2" t="n">
-        <v>234.5279691190147</v>
+        <v>217.7130171794448</v>
       </c>
       <c r="F2" t="n">
-        <v>150.3953535637243</v>
+        <v>179.378708097214</v>
       </c>
       <c r="G2" t="n">
-        <v>1.211270156342717</v>
+        <v>0.5360025782850539</v>
       </c>
       <c r="H2" t="n">
-        <v>0.957215722692386</v>
+        <v>0.9847598057930688</v>
       </c>
     </row>
     <row r="3">
@@ -510,25 +510,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>75.83669902369866</v>
+        <v>94.56310776912031</v>
       </c>
       <c r="C3" t="n">
-        <v>22.4208107176196</v>
+        <v>27.06652090686436</v>
       </c>
       <c r="D3" t="n">
-        <v>13.99906101510858</v>
+        <v>23.33665936631293</v>
       </c>
       <c r="E3" t="n">
-        <v>219.0550340785699</v>
+        <v>228.8014775509013</v>
       </c>
       <c r="F3" t="n">
-        <v>185.3485750052311</v>
+        <v>198.0079203704749</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.434945240369429</v>
+        <v>-0.724690495271175</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8652915167274702</v>
+        <v>0.6279250341334855</v>
       </c>
     </row>
     <row r="4">
@@ -538,25 +538,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>85.43256920471477</v>
+        <v>72.87789671042975</v>
       </c>
       <c r="C4" t="n">
-        <v>50.90945143085908</v>
+        <v>17.80486869037646</v>
       </c>
       <c r="D4" t="n">
-        <v>11.27666310293095</v>
+        <v>11.73213294408845</v>
       </c>
       <c r="E4" t="n">
-        <v>206.8205398602775</v>
+        <v>217.958836036974</v>
       </c>
       <c r="F4" t="n">
-        <v>163.3230834618837</v>
+        <v>197.3825767965488</v>
       </c>
       <c r="G4" t="n">
-        <v>-2.762989812177551</v>
+        <v>-2.82288302857172</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8754291024880565</v>
+        <v>0.6790378651810747</v>
       </c>
     </row>
     <row r="5">
@@ -566,25 +566,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>51.26816343751721</v>
+        <v>47.20409327244348</v>
       </c>
       <c r="C5" t="n">
-        <v>69.8214373326083</v>
+        <v>33.11374513252724</v>
       </c>
       <c r="D5" t="n">
-        <v>15.61097702764114</v>
+        <v>36.89693465595037</v>
       </c>
       <c r="E5" t="n">
-        <v>244.029665983444</v>
+        <v>239.7718828813494</v>
       </c>
       <c r="F5" t="n">
-        <v>198.3554479016762</v>
+        <v>180.62410648066</v>
       </c>
       <c r="G5" t="n">
-        <v>-2.150194645148489</v>
+        <v>-2.109111251326785</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7383696058651562</v>
+        <v>0.6084766674320096</v>
       </c>
     </row>
     <row r="6">
@@ -594,25 +594,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>73.20419794842708</v>
+        <v>67.70189906877789</v>
       </c>
       <c r="C6" t="n">
-        <v>77.6999618625315</v>
+        <v>68.15040714569363</v>
       </c>
       <c r="D6" t="n">
-        <v>15.2112811654331</v>
+        <v>35.03174597667027</v>
       </c>
       <c r="E6" t="n">
-        <v>220.2875844162512</v>
+        <v>241.4447673861729</v>
       </c>
       <c r="F6" t="n">
-        <v>166.6868792063472</v>
+        <v>182.6653356335574</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9906900762688284</v>
+        <v>1.489542650199386</v>
       </c>
       <c r="H6" t="n">
-        <v>0.83983615676585</v>
+        <v>0.6124617611546151</v>
       </c>
     </row>
     <row r="7">
@@ -622,25 +622,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23.02422300550517</v>
+        <v>43.14152878091025</v>
       </c>
       <c r="C7" t="n">
-        <v>55.13606862702827</v>
+        <v>35.46335867184844</v>
       </c>
       <c r="D7" t="n">
-        <v>45.93430649772928</v>
+        <v>29.26970157773126</v>
       </c>
       <c r="E7" t="n">
-        <v>226.202675199313</v>
+        <v>206.2735358423143</v>
       </c>
       <c r="F7" t="n">
-        <v>172.6249898030384</v>
+        <v>187.4713372486507</v>
       </c>
       <c r="G7" t="n">
-        <v>-1.84989393862138</v>
+        <v>1.090568508008861</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8737244368596948</v>
+        <v>0.7626188292416268</v>
       </c>
     </row>
     <row r="8">
@@ -650,25 +650,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>78.08917409744899</v>
+        <v>56.48333227951737</v>
       </c>
       <c r="C8" t="n">
-        <v>58.66364901394918</v>
+        <v>76.97030709117016</v>
       </c>
       <c r="D8" t="n">
-        <v>35.80557656377395</v>
+        <v>33.95267820632088</v>
       </c>
       <c r="E8" t="n">
-        <v>204.6839318155434</v>
+        <v>244.0893949769552</v>
       </c>
       <c r="F8" t="n">
-        <v>155.1247215684593</v>
+        <v>166.7988931005243</v>
       </c>
       <c r="G8" t="n">
-        <v>-1.836733694618867</v>
+        <v>0.5394864716979422</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9816152385556997</v>
+        <v>0.8115314481675924</v>
       </c>
     </row>
     <row r="9">
@@ -678,25 +678,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>98.57858348011598</v>
+        <v>70.70497229783319</v>
       </c>
       <c r="C9" t="n">
-        <v>52.90882229335939</v>
+        <v>73.29561825987871</v>
       </c>
       <c r="D9" t="n">
-        <v>27.4130692249635</v>
+        <v>49.94348362956639</v>
       </c>
       <c r="E9" t="n">
-        <v>248.0415402250654</v>
+        <v>225.4483625883159</v>
       </c>
       <c r="F9" t="n">
-        <v>170.6896886115451</v>
+        <v>186.3048076466968</v>
       </c>
       <c r="G9" t="n">
-        <v>0.465529533078616</v>
+        <v>-2.635184663446062</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6748952173082338</v>
+        <v>0.7590150030228902</v>
       </c>
     </row>
     <row r="10">
@@ -706,25 +706,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>23.47496846572738</v>
+        <v>45.30826627939273</v>
       </c>
       <c r="C10" t="n">
-        <v>20.84971002780165</v>
+        <v>40.04053487747244</v>
       </c>
       <c r="D10" t="n">
-        <v>43.74513733377608</v>
+        <v>21.46000587991259</v>
       </c>
       <c r="E10" t="n">
-        <v>215.0677922933392</v>
+        <v>222.4158987025767</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7945631264764</v>
+        <v>158.1601691252157</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.838814904376109</v>
+        <v>-1.457440485337923</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8324504839315019</v>
+        <v>0.7226315787610792</v>
       </c>
     </row>
     <row r="11">
@@ -734,25 +734,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>61.30152149817116</v>
+        <v>41.1570815530412</v>
       </c>
       <c r="C11" t="n">
-        <v>65.23608753097416</v>
+        <v>51.45483093433405</v>
       </c>
       <c r="D11" t="n">
-        <v>23.54723647112515</v>
+        <v>16.44485105669395</v>
       </c>
       <c r="E11" t="n">
-        <v>206.2579962865105</v>
+        <v>212.3675878680166</v>
       </c>
       <c r="F11" t="n">
-        <v>182.3709981609074</v>
+        <v>175.3157433435739</v>
       </c>
       <c r="G11" t="n">
-        <v>-2.339148233291307</v>
+        <v>-2.490494565468759</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6259905419162588</v>
+        <v>0.6269698882976396</v>
       </c>
     </row>
   </sheetData>

--- a/output/results/production_wells/production_wells_results.xlsx
+++ b/output/results/production_wells/production_wells_results.xlsx
@@ -482,25 +482,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>36.51816896831989</v>
+        <v>53.42058726655018</v>
       </c>
       <c r="C2" t="n">
-        <v>75.35744333971034</v>
+        <v>48.21134383762951</v>
       </c>
       <c r="D2" t="n">
-        <v>17.92376598314013</v>
+        <v>15.8649639555416</v>
       </c>
       <c r="E2" t="n">
-        <v>217.7130171794448</v>
+        <v>215.113685541457</v>
       </c>
       <c r="F2" t="n">
-        <v>179.378708097214</v>
+        <v>185.6645927840595</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5360025782850539</v>
+        <v>-2.128363103746001</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9847598057930688</v>
+        <v>0.9685436417123128</v>
       </c>
     </row>
     <row r="3">
@@ -510,25 +510,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>94.56310776912031</v>
+        <v>93.92634631660378</v>
       </c>
       <c r="C3" t="n">
-        <v>27.06652090686436</v>
+        <v>32.57606738439313</v>
       </c>
       <c r="D3" t="n">
-        <v>23.33665936631293</v>
+        <v>21.62976589917799</v>
       </c>
       <c r="E3" t="n">
-        <v>228.8014775509013</v>
+        <v>217.9416862986527</v>
       </c>
       <c r="F3" t="n">
-        <v>198.0079203704749</v>
+        <v>177.7674827192845</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.724690495271175</v>
+        <v>0.0266539393121521</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6279250341334855</v>
+        <v>0.8434430846515169</v>
       </c>
     </row>
     <row r="4">
@@ -538,25 +538,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>72.87789671042975</v>
+        <v>42.07872482300356</v>
       </c>
       <c r="C4" t="n">
-        <v>17.80486869037646</v>
+        <v>55.778753620023</v>
       </c>
       <c r="D4" t="n">
-        <v>11.73213294408845</v>
+        <v>13.75665567428846</v>
       </c>
       <c r="E4" t="n">
-        <v>217.958836036974</v>
+        <v>212.4042245709743</v>
       </c>
       <c r="F4" t="n">
-        <v>197.3825767965488</v>
+        <v>165.9930991295923</v>
       </c>
       <c r="G4" t="n">
-        <v>-2.82288302857172</v>
+        <v>0.6606014699702949</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6790378651810747</v>
+        <v>0.628580577673582</v>
       </c>
     </row>
     <row r="5">
@@ -566,25 +566,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>47.20409327244348</v>
+        <v>25.1320689820177</v>
       </c>
       <c r="C5" t="n">
-        <v>33.11374513252724</v>
+        <v>53.95442736672652</v>
       </c>
       <c r="D5" t="n">
-        <v>36.89693465595037</v>
+        <v>23.37174810531702</v>
       </c>
       <c r="E5" t="n">
-        <v>239.7718828813494</v>
+        <v>220.7258896500101</v>
       </c>
       <c r="F5" t="n">
-        <v>180.62410648066</v>
+        <v>168.8606116161002</v>
       </c>
       <c r="G5" t="n">
-        <v>-2.109111251326785</v>
+        <v>-2.455548055447991</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6084766674320096</v>
+        <v>0.9822875583611832</v>
       </c>
     </row>
     <row r="6">
@@ -594,25 +594,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>67.70189906877789</v>
+        <v>87.83518319932872</v>
       </c>
       <c r="C6" t="n">
-        <v>68.15040714569363</v>
+        <v>60.85261565329055</v>
       </c>
       <c r="D6" t="n">
-        <v>35.03174597667027</v>
+        <v>42.91725817435447</v>
       </c>
       <c r="E6" t="n">
-        <v>241.4447673861729</v>
+        <v>209.0091101413919</v>
       </c>
       <c r="F6" t="n">
-        <v>182.6653356335574</v>
+        <v>169.7765287996725</v>
       </c>
       <c r="G6" t="n">
-        <v>1.489542650199386</v>
+        <v>-0.2690271177533865</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6124617611546151</v>
+        <v>0.6124472030349173</v>
       </c>
     </row>
     <row r="7">
@@ -622,25 +622,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43.14152878091025</v>
+        <v>88.98508311135974</v>
       </c>
       <c r="C7" t="n">
-        <v>35.46335867184844</v>
+        <v>67.41360589240355</v>
       </c>
       <c r="D7" t="n">
-        <v>29.26970157773126</v>
+        <v>13.99778848415658</v>
       </c>
       <c r="E7" t="n">
-        <v>206.2735358423143</v>
+        <v>229.5392251809899</v>
       </c>
       <c r="F7" t="n">
-        <v>187.4713372486507</v>
+        <v>193.5399550936415</v>
       </c>
       <c r="G7" t="n">
-        <v>1.090568508008861</v>
+        <v>0.4087644952283602</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7626188292416268</v>
+        <v>0.8054540780090966</v>
       </c>
     </row>
     <row r="8">
@@ -650,25 +650,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>56.48333227951737</v>
+        <v>23.21790560505868</v>
       </c>
       <c r="C8" t="n">
-        <v>76.97030709117016</v>
+        <v>67.19586573437418</v>
       </c>
       <c r="D8" t="n">
-        <v>33.95267820632088</v>
+        <v>14.84825188608004</v>
       </c>
       <c r="E8" t="n">
-        <v>244.0893949769552</v>
+        <v>212.166344470336</v>
       </c>
       <c r="F8" t="n">
-        <v>166.7988931005243</v>
+        <v>165.3424558863049</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5394864716979422</v>
+        <v>-2.433976775792443</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8115314481675924</v>
+        <v>0.96236875154338</v>
       </c>
     </row>
     <row r="9">
@@ -678,25 +678,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>70.70497229783319</v>
+        <v>43.63248597736443</v>
       </c>
       <c r="C9" t="n">
-        <v>73.29561825987871</v>
+        <v>56.45469626035633</v>
       </c>
       <c r="D9" t="n">
-        <v>49.94348362956639</v>
+        <v>10.76868152101614</v>
       </c>
       <c r="E9" t="n">
-        <v>225.4483625883159</v>
+        <v>219.4419299805639</v>
       </c>
       <c r="F9" t="n">
-        <v>186.3048076466968</v>
+        <v>183.5252236095589</v>
       </c>
       <c r="G9" t="n">
-        <v>-2.635184663446062</v>
+        <v>-2.74875737596758</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7590150030228902</v>
+        <v>0.6208635236352059</v>
       </c>
     </row>
     <row r="10">
@@ -706,25 +706,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>45.30826627939273</v>
+        <v>71.8854858177927</v>
       </c>
       <c r="C10" t="n">
-        <v>40.04053487747244</v>
+        <v>19.10522070429979</v>
       </c>
       <c r="D10" t="n">
-        <v>21.46000587991259</v>
+        <v>31.50592525958717</v>
       </c>
       <c r="E10" t="n">
-        <v>222.4158987025767</v>
+        <v>203.7675879559816</v>
       </c>
       <c r="F10" t="n">
-        <v>158.1601691252157</v>
+        <v>152.2825251495386</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.457440485337923</v>
+        <v>-1.461363153723463</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7226315787610792</v>
+        <v>0.7520746459758204</v>
       </c>
     </row>
     <row r="11">
@@ -734,25 +734,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>41.1570815530412</v>
+        <v>63.28342874040409</v>
       </c>
       <c r="C11" t="n">
-        <v>51.45483093433405</v>
+        <v>79.70305340599327</v>
       </c>
       <c r="D11" t="n">
-        <v>16.44485105669395</v>
+        <v>45.67323006493222</v>
       </c>
       <c r="E11" t="n">
-        <v>212.3675878680166</v>
+        <v>208.6646039776573</v>
       </c>
       <c r="F11" t="n">
-        <v>175.3157433435739</v>
+        <v>178.2486916864511</v>
       </c>
       <c r="G11" t="n">
-        <v>-2.490494565468759</v>
+        <v>-2.709647608058247</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6269698882976396</v>
+        <v>0.7908960913419094</v>
       </c>
     </row>
   </sheetData>
